--- a/bl_resources/Resources/profit_test.xlsx
+++ b/bl_resources/Resources/profit_test.xlsx
@@ -21,54 +21,60 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs0" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$4:$M$4</definedName>
-    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
-    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$N$15:$N$26</definedName>
-    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">Лист1!$N$5</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">Лист1!$N$6</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">Лист1!$N$7</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">Лист1!$N$8:$N$10</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">Лист1!$P$16</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Лист1!$N$11</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$N$13</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$N$15</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$N$5:$N$26</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$N$6</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$N$8</definedName>
-    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
-    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Лист1!$N$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Лист1!$N$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">Лист1!$N$14</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">Лист1!$N$14:$N$15</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">Лист1!$N$15</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">Лист1!$N$17:$N$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">Лист1!$N$26</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">14</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$N$27</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel0" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel9" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs0" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!#REF!</definedName>
-    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$P$15:$P$26</definedName>
-    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">Лист1!$P$5</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">Лист1!$P$6</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">Лист1!$P$7</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">Лист1!$P$8:$P$10</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">Лист1!$P$16</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Лист1!$P$11</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$P$13</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$P$15</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$P$5:$P$26</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$P$6</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$P$8</definedName>
-    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
-    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Лист1!$P$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Лист1!$P$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">Лист1!$P$14</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">Лист1!$P$14:$P$15</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">Лист1!$P$15</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">Лист1!$P$17:$P$25</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">Лист1!$P$26</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -556,6 +562,18 @@
     </r>
   </si>
   <si>
+    <t>Кманевренности</t>
+  </si>
+  <si>
+    <t>Кобщ.ликвидности</t>
+  </si>
+  <si>
+    <t>Кэф.исп.активов</t>
+  </si>
+  <si>
+    <t>Ккач.ссуд.задолженности</t>
+  </si>
+  <si>
     <r>
       <t>К</t>
     </r>
@@ -568,26 +586,18 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>кл.б.</t>
+      <t>клиентской базы</t>
     </r>
-  </si>
-  <si>
-    <t>Кманевренности</t>
-  </si>
-  <si>
-    <t>Кобщ.ликвидности</t>
-  </si>
-  <si>
-    <t>Кэф.исп.активов</t>
-  </si>
-  <si>
-    <t>Ккач.ссуд.задолженности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0;[Black]0"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Black]0.00"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -818,10 +828,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1140,7 +1156,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1166,46 +1182,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="N1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="31" t="s">
@@ -1217,26 +1233,26 @@
       <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="35"/>
       <c r="O2" s="9"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
@@ -1279,42 +1295,42 @@
       <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="12">
-        <v>17275649</v>
+        <v>17498921</v>
       </c>
       <c r="C4" s="12">
-        <v>101218956</v>
+        <v>99121848</v>
       </c>
       <c r="D4" s="12">
-        <v>145512588</v>
+        <v>151276789</v>
       </c>
       <c r="E4" s="12">
-        <v>15427126</v>
+        <v>16127148</v>
       </c>
       <c r="F4" s="12">
-        <v>13274675</v>
+        <v>14283489</v>
       </c>
       <c r="G4" s="12">
-        <v>97895534</v>
+        <v>97956264</v>
       </c>
       <c r="H4" s="12">
-        <v>99368603.299999997</v>
+        <v>99878603.299999997</v>
       </c>
       <c r="I4" s="12">
-        <v>7637824.5</v>
+        <v>8218589</v>
       </c>
       <c r="J4" s="12">
-        <v>124689442.3</v>
+        <v>124489442.3</v>
       </c>
       <c r="K4" s="12">
-        <v>29507869.800000001</v>
+        <v>29607869.800000001</v>
       </c>
       <c r="L4" s="12">
-        <v>147539349</v>
+        <v>147689564</v>
       </c>
       <c r="M4" s="12">
-        <v>100206766.44</v>
+        <v>94154569</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -1322,7 +1338,7 @@
       <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>151</v>
       </c>
       <c r="B5" s="7">
@@ -1341,9 +1357,9 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="7">
-        <f>-SUMPRODUCT($B$4:$M$4,B5:M5)</f>
-        <v>55480645</v>
+      <c r="N5" s="33">
+        <f>SUMPRODUCT($B$4:$M$4,B5:M5)</f>
+        <v>-58139473.5</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>9</v>
@@ -1354,7 +1370,7 @@
       <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="11">
         <v>1</v>
       </c>
@@ -1373,7 +1389,7 @@
       <c r="M6" s="11"/>
       <c r="N6" s="7">
         <f t="shared" ref="N6" si="0">SUMPRODUCT($B$4:$M$4,B6:M6)</f>
-        <v>-99134421.400000006</v>
+        <v>-103522510.2</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>132</v>
@@ -1385,7 +1401,7 @@
     </row>
     <row r="7" spans="1:17" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1403,9 +1419,9 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="7">
-        <f>-SUMPRODUCT($B$4:$M$4,B7:M7)</f>
-        <v>1856019.8400000036</v>
+      <c r="N7" s="34">
+        <f>SUMPRODUCT($B$4:$M$4,B7:M7)</f>
+        <v>-1635289.8400000036</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>9</v>
@@ -1417,7 +1433,7 @@
     </row>
     <row r="8" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="7">
         <v>-0.5</v>
@@ -1435,9 +1451,9 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="7">
-        <f>-SUMPRODUCT($B$4:$M$4,B8:M8)</f>
-        <v>1000000</v>
+      <c r="N8" s="34">
+        <f>SUMPRODUCT($B$4:$M$4,B8:M8)</f>
+        <v>-530871.5</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>9</v>
@@ -1449,7 +1465,7 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -1467,9 +1483,9 @@
         <v>-0.2</v>
       </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="7">
+      <c r="N9" s="34">
         <f t="shared" ref="N9:N27" si="1">SUMPRODUCT($B$4:$M$4,B9:M9)</f>
-        <v>0</v>
+        <v>69957</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>9</v>
@@ -1480,8 +1496,8 @@
       <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>155</v>
+      <c r="A10" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1501,7 +1517,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>4785421.099999994</v>
+        <v>1548690.4499999881</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>9</v>
@@ -1512,7 +1528,7 @@
       <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11">
@@ -1531,7 +1547,7 @@
       <c r="M11" s="11"/>
       <c r="N11" s="7">
         <f t="shared" si="1"/>
-        <v>-24317096.5</v>
+        <v>-28706667.349999994</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>132</v>
@@ -1542,8 +1558,8 @@
       <c r="Q11" s="30"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>156</v>
+      <c r="A12" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11">
@@ -1561,9 +1577,9 @@
       <c r="M12" s="11">
         <v>1</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="34">
         <f t="shared" si="1"/>
-        <v>3036568.6800000072</v>
+        <v>-1002405.0799999982</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>9</v>
@@ -1574,7 +1590,7 @@
       <c r="Q12" s="30"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11">
         <v>-0.99</v>
@@ -1593,7 +1609,7 @@
       </c>
       <c r="N13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3976060.5199999958</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>132</v>
@@ -1625,7 +1641,7 @@
       <c r="M14" s="11"/>
       <c r="N14" s="7">
         <f t="shared" si="1"/>
-        <v>2152451</v>
+        <v>1843659</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>9</v>
@@ -1655,7 +1671,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="7">
         <f t="shared" si="1"/>
-        <v>17275649</v>
+        <v>17498921</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>9</v>
@@ -1685,10 +1701,10 @@
       <c r="M16" s="11"/>
       <c r="N16" s="7">
         <f t="shared" si="1"/>
-        <v>101218956</v>
+        <v>99121848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="P16" s="7">
         <v>101218956</v>
@@ -1715,7 +1731,7 @@
       <c r="M17" s="11"/>
       <c r="N17" s="7">
         <f t="shared" si="1"/>
-        <v>145512588</v>
+        <v>151276789</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>9</v>
@@ -1745,7 +1761,7 @@
       <c r="M18" s="11"/>
       <c r="N18" s="7">
         <f t="shared" si="1"/>
-        <v>15427126</v>
+        <v>16127148</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>9</v>
@@ -1775,7 +1791,7 @@
       <c r="M19" s="11"/>
       <c r="N19" s="7">
         <f t="shared" si="1"/>
-        <v>13274675</v>
+        <v>14283489</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>9</v>
@@ -1805,7 +1821,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="7">
         <f t="shared" si="1"/>
-        <v>97895534</v>
+        <v>97956264</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>9</v>
@@ -1835,7 +1851,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="7">
         <f t="shared" si="1"/>
-        <v>99368603.299999997</v>
+        <v>99878603.299999997</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>9</v>
@@ -1865,7 +1881,7 @@
       <c r="M22" s="11"/>
       <c r="N22" s="7">
         <f t="shared" si="1"/>
-        <v>7637824.5</v>
+        <v>8218589</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>9</v>
@@ -1895,7 +1911,7 @@
       <c r="M23" s="11"/>
       <c r="N23" s="7">
         <f t="shared" si="1"/>
-        <v>124689442.3</v>
+        <v>124489442.3</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>9</v>
@@ -1921,11 +1937,13 @@
       <c r="K24" s="11">
         <v>1</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="11">
+        <v>-1</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>29507869.800000001</v>
+        <f>SUMPRODUCT($B$4:$K$4,B24:K24)</f>
+        <v>29607869.800000001</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>9</v>
@@ -1955,7 +1973,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="7">
         <f t="shared" si="1"/>
-        <v>147539349</v>
+        <v>147689564</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>9</v>
@@ -1985,10 +2003,10 @@
       </c>
       <c r="N26" s="7">
         <f t="shared" si="1"/>
-        <v>100206766.44</v>
+        <v>94154569</v>
       </c>
       <c r="O26" s="11" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="P26" s="27">
         <v>98895542</v>
@@ -2015,7 +2033,7 @@
       <c r="M27" s="11"/>
       <c r="N27" s="13">
         <f t="shared" si="1"/>
-        <v>15427126</v>
+        <v>16127148</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>131</v>
@@ -2030,14 +2048,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A4"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2047,8 +2057,20 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="N6" formula="1"/>
+    <ignoredError sqref="N24" formula="1" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3267,21 +3289,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
